--- a/private/sijiache/buycarinfo.xlsx
+++ b/private/sijiache/buycarinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -393,35 +393,69 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>布加迪</v>
+        <v>雪弗兰克鲁兹</v>
       </c>
       <c r="B2" t="str">
         <v>3</v>
       </c>
       <c r="C2" t="str">
-        <v>10万</v>
+        <v>5万</v>
       </c>
       <c r="D2" t="str">
-        <v>11122223333</v>
+        <v>13525599168</v>
       </c>
       <c r="E2" t="str">
-        <v>2015-11-28</v>
+        <v>2015-12-3 14:14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>阿斯顿</v>
+        <v>布加迪</v>
       </c>
       <c r="B3" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
         <v>13322332233</v>
       </c>
       <c r="E3" t="str">
+        <v>2015-12-1 16:52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>布加迪</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>10万</v>
+      </c>
+      <c r="D4" t="str">
+        <v>11122223333</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2015-11-28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>阿斯顿</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="str">
+        <v>13322332233</v>
+      </c>
+      <c r="E5" t="str">
         <v>2015-11-26</v>
       </c>
     </row>

--- a/private/sijiache/buycarinfo.xlsx
+++ b/private/sijiache/buycarinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F12"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -390,73 +390,201 @@
       <c r="E1" t="str">
         <v>创建时间</v>
       </c>
+      <c r="F1" t="str">
+        <v>备注</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>雪弗兰克鲁兹</v>
+        <v>东风景逸1.5×L手动挡</v>
       </c>
       <c r="B2" t="str">
-        <v>3</v>
+        <v>2011</v>
       </c>
       <c r="C2" t="str">
-        <v>5万</v>
+        <v>跑了7万公里</v>
       </c>
       <c r="D2" t="str">
-        <v>13525599168</v>
+        <v>15937232220</v>
       </c>
       <c r="E2" t="str">
-        <v>2015-12-3 14:14</v>
+        <v>2015-12-08 12:15</v>
+      </c>
+      <c r="F2" t="str">
+        <v>一熟人的车    我现在买需要多少钱</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>布加迪</v>
+        <v>奥德赛</v>
       </c>
       <c r="B3" t="str">
-        <v>3</v>
+        <v>2年</v>
       </c>
       <c r="C3" t="str">
-        <v>20</v>
+        <v>3万内</v>
       </c>
       <c r="D3" t="str">
-        <v>13322332233</v>
+        <v>13323839509</v>
       </c>
       <c r="E3" t="str">
-        <v>2015-12-1 16:52</v>
+        <v>2015-12-08 11:21</v>
+      </c>
+      <c r="F3" t="str">
+        <v>14款的</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>布加迪</v>
+        <v>别克君威</v>
       </c>
       <c r="B4" t="str">
-        <v>3</v>
+        <v>五年内</v>
       </c>
       <c r="C4" t="str">
-        <v>10万</v>
+        <v>九万以下</v>
       </c>
       <c r="D4" t="str">
-        <v>11122223333</v>
+        <v>15713884168</v>
       </c>
       <c r="E4" t="str">
-        <v>2015-11-28</v>
+        <v>2015-12-08 11:17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>阿斯顿</v>
+        <v>现代</v>
       </c>
       <c r="B5" t="str">
+        <v>3年之内</v>
+      </c>
+      <c r="C5" t="str">
+        <v>50000以内</v>
+      </c>
+      <c r="D5" t="str">
+        <v>15238026562</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2015-12-7 13:8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>福特福克斯</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2014</v>
+      </c>
+      <c r="C6" t="str">
+        <v>15000</v>
+      </c>
+      <c r="D6" t="str">
+        <v>15188337071</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2015-12-7 12:12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>家庭型轿车</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3年</v>
+      </c>
+      <c r="C7" t="str">
+        <v>3-4万</v>
+      </c>
+      <c r="D7" t="str">
+        <v>18939590772</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2015-12-7 11:36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>本田雅阁</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1一3年</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2一4公里</v>
+      </c>
+      <c r="D8" t="str">
+        <v>18639423838</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2015-12-7 11:30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>suv欧美系15-25w</v>
+      </c>
+      <c r="B9" t="str">
+        <v>3-6</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5w-10w</v>
+      </c>
+      <c r="D9" t="str">
+        <v>15038258085</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2015-12-7 11:11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>广汽三菱劲炫</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>20000</v>
+      </c>
+      <c r="D10" t="str">
+        <v>15803815044</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2015-12-7 11:11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>指南者</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
         <v>5</v>
       </c>
-      <c r="C5" t="str">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="str">
-        <v>13322332233</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2015-11-26</v>
+      <c r="D11" t="str">
+        <v>13525599168</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2015-12-7 9:43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>雪弗兰克鲁兹</v>
+      </c>
+      <c r="B12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>5万</v>
+      </c>
+      <c r="D12" t="str">
+        <v>13525599168</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2015-12-3 14:14</v>
       </c>
     </row>
   </sheetData>
